--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Тарасова</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2771.5</v>
+        <v>1448.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Тарасова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Старцева</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Боницкий</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Голубева</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -801,7 +801,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -881,7 +881,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Лихачев</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Голубева</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Лихачев</t>
+          <t>Куликова</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Кустова</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Старцева</t>
+          <t>Малеков</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1481,7 +1481,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1559,7 +1559,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Буянова</t>
+        </is>
+      </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
@@ -1597,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1637,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Боницкий</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1677,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1717,7 +1721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1757,7 +1761,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1797,7 +1801,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кустова</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1837,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1877,7 +1881,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1911,6 +1915,166 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Тяпин</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Хохлова</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Сухарев</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Белозерова</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.5</v>
+        <v>3455.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Тарасова</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Старцева</t>
+          <t>Тарасова</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Боницкий</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Боницкий</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -801,7 +801,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Кустова</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -881,7 +881,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Старцева</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Лихачев</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Голубева</t>
+          <t>Лихачев</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Куликова</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кустова</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Сухарев</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Куликова</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1481,7 +1481,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Голубева</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1721,7 +1721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1761,7 +1761,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1801,7 +1801,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1881,7 +1881,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1921,7 +1921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1961,7 +1961,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2001,7 +2001,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Швецова</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2041,40 +2041,200 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Сорманова</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Миронова</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Малеков</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Давыдова</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Белозерова</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3455.5</v>
+        <v>14733.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Голубева</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Сухарев</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Куликова</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Куликова</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1481,7 +1481,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Голубева</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1721,7 +1721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1761,7 +1761,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1801,7 +1801,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1881,7 +1881,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1921,7 +1921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1961,7 +1961,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2001,7 +2001,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Швецова</t>
+          <t>Сорманова</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2041,7 +2041,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Сорманова</t>
+          <t>Давыдова</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2121,7 +2121,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Швецова</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2161,7 +2161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Давыдова</t>
+          <t>Малеков</t>
         </is>
       </c>
       <c r="B44" t="n">

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,63 +429,63 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Кнопки</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Iphone</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Страховки</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Подписки</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>КЭО</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Гаджеты</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Модемы</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Аксы</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Сим_карты</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Кнопки</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Iphone</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Страховки</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Подписки</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Услуги</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>КЭО</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Гаджеты</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Модемы</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Аксы</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14733.5</v>
+        <v>54078.95</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Куликова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Боницкий</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Куликова</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Боницкий</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1481,7 +1481,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1721,7 +1721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1761,7 +1761,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1801,7 +1801,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1881,7 +1881,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1921,7 +1921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1961,7 +1961,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2001,7 +2001,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Швецова</t>
+          <t>Сухарев</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2081,7 +2081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Миронова</t>
+          <t>Виктория</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2121,7 +2121,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Сорманова</t>
+          <t>Миронова</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2161,7 +2161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Шувалова</t>
+          <t>Белозерова</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2201,7 +2201,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Сироткин</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2275,6 +2275,206 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Сорманова</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Шувалова</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Смирнова</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Кочетова</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Швецова</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54078.95</v>
+        <v>68643.39999999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Тарасова</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -801,7 +801,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кустова</t>
+          <t>Лихачев</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Куликова</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -881,7 +881,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Старцева</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Голубева</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Лихачев</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Боницкий</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Кустова</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1481,7 +1481,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1721,7 +1721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Тарасова</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1761,7 +1761,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Голубева</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1801,7 +1801,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Куликова</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1881,7 +1881,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Боницкий</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1921,7 +1921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Старцева</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2001,7 +2001,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Миронова</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2041,7 +2041,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Давыдова</t>
+          <t>Сироткин</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2081,7 +2081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Виктория</t>
+          <t>Сухарев</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2121,7 +2121,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Миронова</t>
+          <t>Швецова</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2161,7 +2161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Виктория</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2201,7 +2201,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Сироткин</t>
+          <t>Смирнова</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2241,7 +2241,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Сорманова</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2281,7 +2281,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Сорманова</t>
+          <t>Давыдова</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2361,7 +2361,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Смирнова</t>
+          <t>Буянов</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2401,7 +2401,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кочетова</t>
+          <t>Голодникова</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2441,7 +2441,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Швецова</t>
+          <t>Белозерова</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2475,6 +2475,86 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Кочетова</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Малеков</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68643.39999999999</v>
+        <v>123981.25</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Кустова</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кустова</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2081,7 +2081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Швецова</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2121,7 +2121,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Швецова</t>
+          <t>Шувалова</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2161,7 +2161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Виктория</t>
+          <t>Смирнова</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2201,7 +2201,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Смирнова</t>
+          <t>Давыдова</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2241,7 +2241,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Сорманова</t>
+          <t>Буянов</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2281,7 +2281,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Давыдова</t>
+          <t>Виктория</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2321,7 +2321,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Шувалова</t>
+          <t>Сорманова</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2361,7 +2361,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Буянов</t>
+          <t>Левкович</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2401,7 +2401,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Голодникова</t>
+          <t>Белозерова</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2441,7 +2441,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Голодникова</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2481,7 +2481,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кочетова</t>
+          <t>Светлана</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2555,6 +2555,126 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Кочетова</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Сухарев</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Сосина</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123981.25</v>
+        <v>6593.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Плетникова</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Лихачев</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -801,7 +801,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Лихачев</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -881,7 +881,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1161,7 +1161,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Плетникова</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2081,7 +2081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Швецова</t>
+          <t>Шувалова</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2121,7 +2121,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Шувалова</t>
+          <t>Швецова</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2161,7 +2161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Смирнова</t>
+          <t>Виктория</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2201,7 +2201,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Давыдова</t>
+          <t>Смирнова</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2241,7 +2241,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Буянов</t>
+          <t>Белозерова</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2281,7 +2281,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Виктория</t>
+          <t>Сосина</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2401,7 +2401,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Малеков</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2441,7 +2441,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Голодникова</t>
+          <t>Давыдова</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2521,7 +2521,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Буянов</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2561,7 +2561,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кочетова</t>
+          <t>Голодникова</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2601,7 +2601,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Кочетова</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2641,7 +2641,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Сосина</t>
+          <t>Сухарев</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2675,6 +2675,46 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Сопин</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>

--- a/names.xlsx
+++ b/names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Носова</t>
+          <t>Юдин</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68643.39999999999</v>
+        <v>6593.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Мелкумян</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -561,7 +561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Мелкумян</t>
+          <t>Приписнова</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -601,7 +601,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Приписнова</t>
+          <t>Тяпин</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Тяпин</t>
+          <t>Буянова</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -681,7 +681,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Калугина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Илюхина</t>
+          <t>Винокуров</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -761,7 +761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кузякин</t>
+          <t>Лихачев</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -801,7 +801,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Лихачев</t>
+          <t>Кусочкова</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -841,7 +841,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кусочкова</t>
+          <t>Суворов</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -881,7 +881,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Суворов</t>
+          <t>Караганская</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -921,7 +921,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Караганская</t>
+          <t>Калугина</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -961,7 +961,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Рогачев</t>
+          <t>Лямзина</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1001,7 +1001,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Лямзина</t>
+          <t>Цыгина</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1041,7 +1041,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Хохлова</t>
+          <t>Сытин</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1081,7 +1081,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Сытин</t>
+          <t>Сазонов</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1121,7 +1121,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Сазонов</t>
+          <t>Кузякин</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1201,7 +1201,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Буянова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1241,7 +1241,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Голованов</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1281,7 +1281,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Голованов</t>
+          <t>Романцова</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1321,7 +1321,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Калашникова</t>
+          <t>Кустова</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1361,7 +1361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кустова</t>
+          <t>Илюхина</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1401,7 +1401,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Цыгина</t>
+          <t>Чекушкин</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1441,7 +1441,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Чекушкин</t>
+          <t>Носова</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1521,7 +1521,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Светов</t>
+          <t>Чернокрылюк</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1561,7 +1561,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чернокрылюк</t>
+          <t>Калашникова</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Романцова</t>
+          <t>Рогачев</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1641,7 +1641,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Винокуров</t>
+          <t>Хохлова</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1681,7 +1681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Юдин</t>
+          <t>Михайлова</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1841,7 +1841,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Михайлова</t>
+          <t>Светов</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2081,7 +2081,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Сухарев</t>
+          <t>Шувалова</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2241,7 +2241,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Сорманова</t>
+          <t>Белозерова</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2281,7 +2281,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Давыдова</t>
+          <t>Сосина</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2321,7 +2321,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Шувалова</t>
+          <t>Сорманова</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2361,7 +2361,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Буянов</t>
+          <t>Левкович</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2401,7 +2401,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Голодникова</t>
+          <t>Малеков</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2441,7 +2441,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Белозерова</t>
+          <t>Давыдова</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2481,7 +2481,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кочетова</t>
+          <t>Светлана</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2521,7 +2521,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Малеков</t>
+          <t>Буянов</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2555,6 +2555,166 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Голодникова</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Кочетова</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Сухарев</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Сопин</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
